--- a/FE.xlsx
+++ b/FE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mexis\OneDrive\Υπολογιστής\straindesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C125D1EB-2AE1-4CD4-9C19-CCB8FD897E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A05516-B81F-453C-918E-C36D1EE7626D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-156" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{A3654EC3-9EA2-4B66-94E5-391ECFA79596}"/>
   </bookViews>
@@ -429,31 +429,63 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3.7990534629999999</v>
+        <f>G$1</f>
+        <v>4.7129547460000003</v>
       </c>
       <c r="C1">
         <f>(B1-5)*(B1-5)</f>
-        <v>1.4422725847322926</v>
+        <v>8.2394977843924341E-2</v>
       </c>
       <c r="D1">
         <f>B1^2</f>
-        <v>14.432807214732291</v>
+        <v>22.211942437843927</v>
+      </c>
+      <c r="G1" s="1">
+        <v>4.7129547460000003</v>
+      </c>
+      <c r="H1" s="1">
+        <v>4.8136774400000002</v>
+      </c>
+      <c r="I1" s="1">
+        <v>5.5183692090000003</v>
+      </c>
+      <c r="J1" s="1">
+        <v>5.2413849399999997</v>
+      </c>
+      <c r="K1" s="1">
+        <v>4.4652431650000004</v>
+      </c>
+      <c r="L1" s="1">
+        <v>8.7527061209999992</v>
+      </c>
+      <c r="M1" s="1">
+        <v>3.9395117590000002</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2.801056022</v>
+      </c>
+      <c r="O1" s="1">
+        <v>5.2662967700000003</v>
+      </c>
+      <c r="P1" s="1">
+        <v>1.536614519</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -461,15 +493,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.6362344999999996</v>
+        <f>H1</f>
+        <v>4.8136774400000002</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C10" si="0">(B2-5)*(B2-5)</f>
-        <v>0.13232533899025029</v>
+        <v>3.4716096364953528E-2</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D10" si="1">B2^2</f>
-        <v>21.494670338990247</v>
+        <v>23.171490496364957</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -482,146 +515,154 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>2.0631017439999999</v>
+      <c r="B3">
+        <f>I1</f>
+        <v>5.5183692090000003</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>8.6253713660958429</v>
+        <v>0.26870663683928597</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>4.256388806095841</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+        <v>30.452398726839288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>1.28070292</v>
+      <c r="B4">
+        <f>J1</f>
+        <v>5.2413849399999997</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>13.833170769296526</v>
+        <v>5.8266689258803434E-2</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>1.6401999692965263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+        <v>27.472116089258801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>4.2430063499999999</v>
+      <c r="B5">
+        <f>K1</f>
+        <v>4.4652431650000004</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0.57303938614032257</v>
+        <v>0.28596487257921677</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>18.003102886140322</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+        <v>19.938396522579222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>4.5800295010000003</v>
+      <c r="B6">
+        <f>L1</f>
+        <v>8.7527061209999992</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.17637522003030875</v>
+        <v>14.08280323059086</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>20.976670230030312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+        <v>76.609864440590854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>6.1163552670000003</v>
+      <c r="B7">
+        <f>M1</f>
+        <v>3.9395117590000002</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>1.2462490821586421</v>
+        <v>1.1246353092992738</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>37.409801752158643</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+        <v>15.519752899299275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>7.2878255599999999</v>
+      <c r="B8">
+        <f>N1</f>
+        <v>2.801056022</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>5.2341457929893132</v>
+        <v>4.8353546183824641</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>53.112401392989312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+        <v>7.8459148383824644</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>5.5317414500000002</v>
+      <c r="B9">
+        <f>O1</f>
+        <v>5.2662967700000003</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0.2827489696481027</v>
+        <v>7.091396971243305E-2</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>30.600163469648106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+        <v>27.733881669712435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>5.5227466200000004</v>
+      <c r="B10">
+        <f>P1</f>
+        <v>1.536614519</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0.2732640287214248</v>
+        <v>11.995038990001602</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>30.50073022872143</v>
+        <v>2.3611841800016014</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12">
         <f>-SUM(C1:C10)</f>
-        <v>-31.818962538803028</v>
+        <v>-32.838795390872818</v>
       </c>
       <c r="D12">
         <f>EXP(-SUM(D1:D10))</f>
-        <v>1.1435736084519288E-101</v>
+        <v>9.6794300600995947E-111</v>
       </c>
       <c r="E12">
         <f>C12*1/10+D12+25</f>
-        <v>21.818103746119696</v>
+        <v>21.71612046091272</v>
       </c>
     </row>
   </sheetData>
